--- a/biology/Botanique/Coris_monspeliensis/Coris_monspeliensis.xlsx
+++ b/biology/Botanique/Coris_monspeliensis/Coris_monspeliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coris de Montpellier
 Le Coris de Montpellier (Coris monspeliensis) est une espèce de plantes à fleurs de la famille des primulacées. C'est l'une des deux espèces du genre Coris. C'est un sous-arbrisseau originaire du bassin méditerranéen.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante dressée, rarement prostrée, de 5-25 cm. Les feuilles sont sessiles, droites ou réfléchies, linéaires, entières ou crénelées, les supérieures généralement dentées. L'inflorescence est en épi de 1 à 3 cm de hauteur. Le calice, en cloche, de 4-6 mm a 6-10(14) dents de 2-4 mm de long. La corolle de 9 à 16 mm est de couleur rose intense à violet. Le fruit est une capsule de 1-2,5 mm de diamètre, globuleuse qui contient 4 à 6 graines.
 La floraison s'étale d'avril à juillet. 
@@ -546,7 +560,9 @@
           <t>Répatition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve la plante autour de la Méditerranée, en Europe et en Afrique du Nord.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante pousse sur des terrains calcaire, crayeux, pierreux et autres sols pauvres. Elle grandit dans les pelouses rocailleuses, les garrigues.
 </t>
